--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782693.7184808229</v>
+        <v>777405.602986051</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10469911.77098355</v>
+        <v>10468141.8328123</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>306.6890883276099</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.43608537398</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056037</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>121.0954842360251</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>273.0891598015558</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>203.0747586157667</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>164.6296363280702</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>78.69236129863812</v>
+        <v>100.8996439579062</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.52529077486058</v>
+        <v>175.6983641828943</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,19 +1181,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>32.53262092517652</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1294,7 +1294,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,16 +1427,16 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>82.84318101783148</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>319.8444572927821</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993867</v>
+        <v>40.78297506860861</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717784</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.34799473125022</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456089</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,13 +1585,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>72.41807127591125</v>
+        <v>171.188624320971</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372782</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362794</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993867</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>10.47359100928013</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456089</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888546095</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135888</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422874356</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414342</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404354</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007186</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035427</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.085507492194</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507311</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484038</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723251</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380455</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497648</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.6707049994324</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3503,25 +3503,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799133</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1090.528423246938</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1090.528423246938</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="D2" t="n">
-        <v>1090.528423246938</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="E2" t="n">
-        <v>1090.528423246938</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207956</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845418</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737747</v>
+        <v>2012.380333804332</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523736</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958335</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958335</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958335</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1491.023168958335</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1491.023168958335</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.8018246066504</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>572.1475941667426</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="D3" t="n">
-        <v>442.0586267882229</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475494</v>
+        <v>158.7695259828341</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>642.3356118811473</v>
       </c>
       <c r="M3" t="n">
-        <v>714.382533420276</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430368</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1053.912375972104</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y3" t="n">
-        <v>874.5981590476117</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="U4" t="n">
-        <v>423.7848383464424</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>947.0340272878068</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="C5" t="n">
-        <v>947.0340272878068</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>947.0340272878068</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>947.0340272878068</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>668.673300197864</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207956</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398918</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.523771398918</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="W5" t="n">
-        <v>1343.524736367206</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.524736367206</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="Y5" t="n">
-        <v>947.0340272878068</v>
+        <v>1537.649747726258</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902142</v>
+        <v>556.1927859813152</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622342</v>
+        <v>405.5385555414074</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>581.7451171265815</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136674</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146766</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737747</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431033</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850.47269125463</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>680.2675733206192</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>524.6344602231339</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823364</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.976341890575</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.976341890575</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.976341890575</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.976341890575</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.976341890575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1338.333452267659</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.333452267659</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1480.107509811048</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.147110703377</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2128.280803045999</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.828197979056</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.828197979056</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.4399127684381</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>725.6479314597394</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>800.8136995685213</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2770.295603492179</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2686.615622666087</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.908865593931</v>
+        <v>103.3140520158413</v>
       </c>
       <c r="C13" t="n">
-        <v>312.5000228061141</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>228.6631848548227</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>228.6631848548227</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027737</v>
@@ -5209,7 +5209,7 @@
         <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,7 +5221,7 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
         <v>1313.608118922022</v>
@@ -5230,19 +5230,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245452</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245452</v>
+        <v>741.8597555915629</v>
       </c>
       <c r="W13" t="n">
-        <v>724.5086987019167</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="X13" t="n">
-        <v>562.2246516310937</v>
+        <v>368.0415815981114</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.908865593931</v>
+        <v>216.7257955609487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009979</v>
+        <v>1463.714265689664</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1142.335039338788</v>
       </c>
       <c r="D14" t="n">
-        <v>799.194475021965</v>
+        <v>828.6901857016492</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766004</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527721</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527721</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5315,13 +5315,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>1788.408699622869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575182</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399.8503184534351</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>301.4414756656182</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>290.8620908077594</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027739</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138166</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.167348517031</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840492</v>
+        <v>741.8597555915629</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614207</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905978</v>
+        <v>368.0415815981115</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534351</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975438</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.67184050993</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924113</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.67184050993</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803423</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,19 +5771,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,10 +5792,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>490.2252314250072</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233205</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233205</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222422</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678972</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938509</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.15266361238</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386533</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753569</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645897</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3390.346025506992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655909</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985355</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796871</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192022</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225752</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904125</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351195</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286454</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988168</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116105</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741587</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513238</v>
+        <v>1833.812697451711</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.9954281507</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043029</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>225.4160927170939</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805502</v>
+        <v>389.5437325908937</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458845</v>
+        <v>575.8353109291577</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>870.6770655353499</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7096,13 +7096,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
         <v>812.1990332879427</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,7 +7202,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188067</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,13 +7333,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
@@ -7351,31 +7351,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,16 +7682,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7737,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.831274102045</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,22 +7810,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>464.0015950999602</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>213.717612910206</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>93.79016463309929</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>281.6000393495219</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>422.1322957664989</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913374</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>310.7778333918678</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>132.572241649815</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>413.5901686882534</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465423</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345094</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.4852906721864</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,13 +10902,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,7 +10917,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>110.5765941352903</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362786</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>213.3675512688319</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301090821</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.6417792913301</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465751</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>63.32636831317456</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681691</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.0613059639776</v>
+        <v>156.2907529189179</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>72.52487856249827</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442478</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681691</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901681</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133015</v>
       </c>
     </row>
     <row r="17">
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916236.7773522324</v>
+        <v>915334.4559315919</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>916236.7773522324</v>
+        <v>915334.4559315919</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819572.0937560329</v>
+        <v>819572.0937560328</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819572.0937560329</v>
+        <v>819572.0937560328</v>
       </c>
     </row>
     <row r="7">
@@ -26320,28 +26320,28 @@
         <v>378697.5739960494</v>
       </c>
       <c r="E2" t="n">
-        <v>334653.9491912411</v>
+        <v>334653.9491912412</v>
       </c>
       <c r="F2" t="n">
-        <v>334653.9491912411</v>
+        <v>334653.949191241</v>
       </c>
       <c r="G2" t="n">
         <v>378697.5739960492</v>
       </c>
       <c r="H2" t="n">
+        <v>378697.5739960494</v>
+      </c>
+      <c r="I2" t="n">
         <v>378697.5739960492</v>
-      </c>
-      <c r="I2" t="n">
-        <v>378697.5739960491</v>
       </c>
       <c r="J2" t="n">
         <v>378697.5739960494</v>
       </c>
       <c r="K2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960495</v>
       </c>
       <c r="L2" t="n">
-        <v>378697.5739960495</v>
+        <v>378697.5739960488</v>
       </c>
       <c r="M2" t="n">
         <v>378697.5739960492</v>
@@ -26353,7 +26353,7 @@
         <v>378697.5739960492</v>
       </c>
       <c r="P2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.85189012250345e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002079</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002079</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,28 +26482,28 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70006.88335491515</v>
+        <v>-65956.21134750047</v>
       </c>
       <c r="C6" t="n">
-        <v>112198.0649369407</v>
+        <v>107902.4456865545</v>
       </c>
       <c r="D6" t="n">
-        <v>105606.0035972183</v>
+        <v>97869.71437382666</v>
       </c>
       <c r="E6" t="n">
-        <v>56547.99351714817</v>
+        <v>56338.26197045875</v>
       </c>
       <c r="F6" t="n">
-        <v>168670.5549911927</v>
+        <v>168460.8234445031</v>
       </c>
       <c r="G6" t="n">
-        <v>112546.1881520576</v>
+        <v>112546.1881520578</v>
       </c>
       <c r="H6" t="n">
+        <v>159971.5136887396</v>
+      </c>
+      <c r="I6" t="n">
+        <v>159971.5136887397</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-46554.11875397257</v>
+      </c>
+      <c r="K6" t="n">
+        <v>153731.7452859568</v>
+      </c>
+      <c r="L6" t="n">
+        <v>94500.31914086286</v>
+      </c>
+      <c r="M6" t="n">
+        <v>116718.9892179283</v>
+      </c>
+      <c r="N6" t="n">
         <v>159971.5136887395</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>132203.8196459682</v>
+      </c>
+      <c r="P6" t="n">
         <v>159971.5136887394</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-53070.40390854577</v>
-      </c>
-      <c r="K6" t="n">
-        <v>153731.7452859567</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98549.15635133568</v>
-      </c>
-      <c r="M6" t="n">
-        <v>117770.6842291165</v>
-      </c>
-      <c r="N6" t="n">
-        <v>159971.5136887396</v>
-      </c>
-      <c r="O6" t="n">
-        <v>132203.8196459683</v>
-      </c>
-      <c r="P6" t="n">
-        <v>159971.5136887396</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287426</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>106.0364057577121</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295368</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094798</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>66.31852263746339</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.495244038962312</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>186.168987866332</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>248.0958577572518</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.09571640609634</v>
+        <v>27.88843374682827</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.83064772952768</v>
+        <v>7.657574321493996</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>334.7564237562189</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9556888425044008</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634530101</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599743</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599589</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431746</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,16 +29548,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566375</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159647</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031004</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253952</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30168,16 +30168,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155856</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,40 +30378,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30642,14 +30642,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>314.276543502233</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.41616566928082</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.193229299765948</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>189.2129173002099</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>268.8841260360073</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729452</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>220.7174865349496</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>47.20012879564833</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>263.2887214473282</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>93.70171839237568</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257292</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
         <v>236.863807216752</v>
@@ -35580,13 +35580,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565488</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.172850001176</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032134008</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36373,7 +36373,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453562</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877771</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254078</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192275</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215839</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122745</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446888</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>584.9538525242067</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,16 +37069,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338747</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765076</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.45551223712</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345595</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37464,16 +37464,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37622,13 +37622,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
